--- a/data/famplan.xlsx
+++ b/data/famplan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12617,13 +12617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -71629,7 +71630,7 @@
   <dimension ref="A1:Z150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
